--- a/data/otuzco.xlsx
+++ b/data/otuzco.xlsx
@@ -604,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>11</v>
@@ -842,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1032,7 +1032,11 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -1064,7 +1068,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
@@ -1108,7 +1116,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>10</t>
@@ -1156,7 +1168,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>10</t>
@@ -1200,7 +1216,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>11</t>
@@ -1248,7 +1268,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>11</t>
@@ -1328,7 +1352,11 @@
           <t>13</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
